--- a/snapshots/20251118/20251118_snapshot.xlsx
+++ b/snapshots/20251118/20251118_snapshot.xlsx
@@ -79,7 +79,7 @@
     <t>20251118</t>
   </si>
   <si>
-    <t>2025-11-18T22:01:55</t>
+    <t>2025-11-18T22:22:19</t>
   </si>
 </sst>
 </file>

--- a/snapshots/20251118/20251118_snapshot.xlsx
+++ b/snapshots/20251118/20251118_snapshot.xlsx
@@ -79,7 +79,7 @@
     <t>20251118</t>
   </si>
   <si>
-    <t>2025-11-18T22:22:19</t>
+    <t>2025-11-18T22:30:43</t>
   </si>
 </sst>
 </file>

--- a/snapshots/20251118/20251118_snapshot.xlsx
+++ b/snapshots/20251118/20251118_snapshot.xlsx
@@ -79,7 +79,7 @@
     <t>20251118</t>
   </si>
   <si>
-    <t>2025-11-18T22:30:43</t>
+    <t>2025-11-18T22:48:25</t>
   </si>
 </sst>
 </file>
